--- a/example.xlsx
+++ b/example.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dwolt\Coding\excel-to-neo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398088F8-C00F-426A-8D7F-ACEF44AF1035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DEA9B3-63E1-4896-995A-2FFA4046CC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="0" windowWidth="16200" windowHeight="20985" xr2:uid="{827DE283-075A-4074-BF4C-A7D8350D4494}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{827DE283-075A-4074-BF4C-A7D8350D4494}"/>
   </bookViews>
   <sheets>
     <sheet name="Participants" sheetId="1" r:id="rId1"/>
-    <sheet name="Projects" sheetId="2" r:id="rId2"/>
+    <sheet name="Assignments" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -146,10 +146,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -486,13 +485,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9B9018-7232-445F-9349-DBEC94B51235}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -510,7 +509,7 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
@@ -521,7 +520,7 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
@@ -532,7 +531,7 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
@@ -543,7 +542,7 @@
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
@@ -554,7 +553,7 @@
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>19</v>
       </c>
       <c r="C6" t="s">
@@ -565,7 +564,7 @@
       <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
@@ -582,13 +581,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61DF828D-924A-471F-BD04-62CA9AFEE7C4}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
